--- a/IOTC-resources-data-analysis/Gematria Básica.xlsx
+++ b/IOTC-resources-data-analysis/Gematria Básica.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/62c6f0bacd04d569/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\IOTC\IOTC-resources-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{235DEA14-0487-4351-B3FF-F57E5B960AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E6B4CF-C8F8-47CB-A124-29840D38AC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gamatria Básica" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -100,6 +111,9 @@
   </si>
   <si>
     <t>Z</t>
+  </si>
+  <si>
+    <t>I</t>
   </si>
 </sst>
 </file>
@@ -135,8 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1:X1048576"/>
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,160 +471,166 @@
     <col min="7" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="2.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="1">
         <v>5</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="1">
         <v>6</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>7</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="1">
         <v>8</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="1">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="1">
         <v>10</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="1">
         <v>11</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="1">
         <v>12</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="1">
         <v>13</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="1">
         <v>14</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>15</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>16</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>17</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="1">
         <v>18</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1">
         <v>19</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="1">
         <v>20</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>21</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="1">
         <v>22</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="1">
         <v>23</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="1">
         <v>24</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="1">
         <v>25</v>
       </c>
+      <c r="Z1" s="1">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
